--- a/results/mp/logistic/corona/confidence/210/stop-words-topk-desired-masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/stop-words-topk-desired-masking-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="101">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,78 +46,99 @@
     <t>crude</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>fraud</t>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>shit</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
     <t>shame</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>falling</t>
+    <t>avoid</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>avoid</t>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>emergency</t>
   </si>
   <si>
     <t>cut</t>
   </si>
   <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
+    <t>isolation</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>fight</t>
   </si>
   <si>
@@ -127,12 +148,21 @@
     <t>oil</t>
   </si>
   <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -145,136 +175,148 @@
     <t>best</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>save</t>
+    <t>important</t>
   </si>
   <si>
     <t>data</t>
   </si>
   <si>
-    <t>hope</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>give</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>helping</t>
   </si>
   <si>
-    <t>sure</t>
+    <t>check</t>
   </si>
   <si>
     <t>increased</t>
   </si>
   <si>
-    <t>check</t>
-  </si>
-  <si>
     <t>keep</t>
   </si>
   <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
     <t>stay</t>
   </si>
   <si>
-    <t>need</t>
-  </si>
-  <si>
     <t>amp</t>
   </si>
   <si>
-    <t>corona</t>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>grocery</t>
   </si>
 </sst>
 </file>
@@ -632,7 +674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -640,10 +682,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J1" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -722,7 +764,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -772,7 +814,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="K4">
         <v>0.9583333333333334</v>
@@ -801,13 +843,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.896551724137931</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="C5">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D5">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -819,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="K5">
         <v>0.9491525423728814</v>
@@ -851,13 +893,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8918918918918919</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C6">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -872,16 +914,16 @@
         <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="K6">
-        <v>0.9086161879895561</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L6">
-        <v>348</v>
+        <v>31</v>
       </c>
       <c r="M6">
-        <v>348</v>
+        <v>31</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -893,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -901,13 +943,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8698630136986302</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="C7">
-        <v>254</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>254</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -919,19 +961,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="K7">
-        <v>0.8936170212765957</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L7">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="M7">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -943,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -951,13 +993,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8666666666666667</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -972,16 +1014,16 @@
         <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="K8">
-        <v>0.890625</v>
+        <v>0.9086161879895561</v>
       </c>
       <c r="L8">
-        <v>114</v>
+        <v>348</v>
       </c>
       <c r="M8">
-        <v>114</v>
+        <v>348</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -993,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1001,13 +1043,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8611111111111112</v>
+        <v>0.8527397260273972</v>
       </c>
       <c r="C9">
-        <v>31</v>
+        <v>249</v>
       </c>
       <c r="D9">
-        <v>31</v>
+        <v>249</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1019,19 +1061,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="K9">
-        <v>0.8839285714285714</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="L9">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="M9">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1043,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1051,13 +1093,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7948717948717948</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="C10">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1069,19 +1111,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="K10">
-        <v>0.8793103448275862</v>
+        <v>0.8943661971830986</v>
       </c>
       <c r="L10">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="M10">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1093,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1101,13 +1143,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7567567567567568</v>
+        <v>0.8</v>
       </c>
       <c r="C11">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D11">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1119,19 +1161,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="K11">
-        <v>0.8732394366197183</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="L11">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="M11">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1143,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1151,13 +1193,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7450980392156863</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="C12">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D12">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1169,19 +1211,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="K12">
-        <v>0.86875</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L12">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="M12">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1193,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1201,38 +1243,38 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7419354838709677</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>6</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13">
+        <v>0.8846153846153846</v>
+      </c>
+      <c r="L13">
         <v>23</v>
       </c>
-      <c r="D13">
+      <c r="M13">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>8</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K13">
-        <v>0.8679245283018868</v>
-      </c>
-      <c r="L13">
-        <v>92</v>
-      </c>
-      <c r="M13">
-        <v>92</v>
-      </c>
       <c r="N13">
         <v>1</v>
       </c>
@@ -1243,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1251,13 +1293,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7344961240310077</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C14">
-        <v>379</v>
+        <v>23</v>
       </c>
       <c r="D14">
-        <v>379</v>
+        <v>23</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1269,19 +1311,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>137</v>
+        <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="K14">
-        <v>0.8604651162790697</v>
+        <v>0.8773584905660378</v>
       </c>
       <c r="L14">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="M14">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1293,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1301,49 +1343,49 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7333333333333333</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C15">
+        <v>23</v>
+      </c>
+      <c r="D15">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>7</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K15">
+        <v>0.8625</v>
+      </c>
+      <c r="L15">
+        <v>138</v>
+      </c>
+      <c r="M15">
+        <v>138</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>22</v>
-      </c>
-      <c r="D15">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>8</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K15">
-        <v>0.8484848484848485</v>
-      </c>
-      <c r="L15">
-        <v>28</v>
-      </c>
-      <c r="M15">
-        <v>28</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1351,13 +1393,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.717948717948718</v>
+        <v>0.7558139534883721</v>
       </c>
       <c r="C16">
-        <v>28</v>
+        <v>390</v>
       </c>
       <c r="D16">
-        <v>28</v>
+        <v>390</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1369,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K16">
-        <v>0.8414634146341463</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L16">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="M16">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1393,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1401,13 +1443,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6984126984126984</v>
+        <v>0.75</v>
       </c>
       <c r="C17">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="D17">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1419,19 +1461,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="K17">
-        <v>0.8333333333333334</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L17">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M17">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1443,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1451,13 +1493,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6875</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="C18">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D18">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1469,19 +1511,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="K18">
-        <v>0.8076923076923077</v>
+        <v>0.84375</v>
       </c>
       <c r="L18">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="M18">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1493,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1501,13 +1543,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6610169491525424</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C19">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D19">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1519,19 +1561,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="K19">
-        <v>0.803921568627451</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L19">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="M19">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1543,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1551,13 +1593,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.65</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="C20">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D20">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1569,19 +1611,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="K20">
-        <v>0.7916666666666666</v>
+        <v>0.8253968253968254</v>
       </c>
       <c r="L20">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="M20">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1593,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1601,13 +1643,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6442953020134228</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="C21">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="D21">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1619,19 +1661,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="K21">
-        <v>0.7777777777777778</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L21">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="M21">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1643,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1651,13 +1693,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6181818181818182</v>
+        <v>0.708994708994709</v>
       </c>
       <c r="C22">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="D22">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1669,19 +1711,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="K22">
         <v>0.7777777777777778</v>
       </c>
       <c r="L22">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M22">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1693,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1701,13 +1743,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5454545454545454</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="C23">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D23">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1719,19 +1761,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K23">
-        <v>0.7647058823529411</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L23">
-        <v>260</v>
+        <v>27</v>
       </c>
       <c r="M23">
-        <v>260</v>
+        <v>27</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1743,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>80</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1751,13 +1793,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5357142857142857</v>
+        <v>0.6949152542372882</v>
       </c>
       <c r="C24">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D24">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1769,19 +1811,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="K24">
-        <v>0.7447698744769874</v>
+        <v>0.76</v>
       </c>
       <c r="L24">
-        <v>178</v>
+        <v>38</v>
       </c>
       <c r="M24">
-        <v>178</v>
+        <v>38</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1793,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1801,13 +1843,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.48</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C25">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D25">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1819,19 +1861,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="K25">
-        <v>0.7407407407407407</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L25">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M25">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1843,7 +1885,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1851,13 +1893,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4666666666666667</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="C26">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D26">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1869,31 +1911,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="K26">
-        <v>0.7303754266211604</v>
+        <v>0.7558823529411764</v>
       </c>
       <c r="L26">
-        <v>214</v>
+        <v>257</v>
       </c>
       <c r="M26">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="N26">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1901,13 +1943,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4007936507936508</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="C27">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="D27">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1919,19 +1961,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="K27">
-        <v>0.6966292134831461</v>
+        <v>0.75</v>
       </c>
       <c r="L27">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="M27">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1943,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1951,13 +1993,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3896103896103896</v>
+        <v>0.6375838926174496</v>
       </c>
       <c r="C28">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="D28">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1969,19 +2011,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="K28">
-        <v>0.6914893617021277</v>
+        <v>0.7340425531914894</v>
       </c>
       <c r="L28">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M28">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1993,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2001,13 +2043,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.35</v>
+        <v>0.5892857142857143</v>
       </c>
       <c r="C29">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D29">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2019,19 +2061,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="K29">
-        <v>0.6857142857142857</v>
+        <v>0.7230769230769231</v>
       </c>
       <c r="L29">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M29">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2043,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2051,13 +2093,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2975871313672922</v>
+        <v>0.5866666666666667</v>
       </c>
       <c r="C30">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="D30">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2069,19 +2111,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>262</v>
+        <v>31</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="K30">
-        <v>0.6857142857142857</v>
+        <v>0.7154811715481172</v>
       </c>
       <c r="L30">
-        <v>24</v>
+        <v>171</v>
       </c>
       <c r="M30">
-        <v>24</v>
+        <v>171</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2093,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>11</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2101,13 +2143,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1966666666666667</v>
+        <v>0.509090909090909</v>
       </c>
       <c r="C31">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="D31">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2119,19 +2161,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>241</v>
+        <v>27</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="K31">
-        <v>0.6842105263157895</v>
+        <v>0.7152542372881356</v>
       </c>
       <c r="L31">
-        <v>39</v>
+        <v>211</v>
       </c>
       <c r="M31">
-        <v>39</v>
+        <v>211</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2143,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2151,37 +2193,37 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.0183989670755326</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="C32">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D32">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="E32">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>3041</v>
+        <v>46</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="K32">
-        <v>0.676923076923077</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L32">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="M32">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2193,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2201,323 +2243,563 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.01739539257169723</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="C33">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D33">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="E33">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="G33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>2090</v>
+        <v>29</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K33">
-        <v>0.639344262295082</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L33">
+        <v>19</v>
+      </c>
+      <c r="M33">
+        <v>19</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M33">
+      <c r="B34">
+        <v>0.4025974025974026</v>
+      </c>
+      <c r="C34">
+        <v>31</v>
+      </c>
+      <c r="D34">
+        <v>31</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>46</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K34">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="L34">
+        <v>19</v>
+      </c>
+      <c r="M34">
+        <v>19</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>0.3928571428571428</v>
+      </c>
+      <c r="C35">
+        <v>99</v>
+      </c>
+      <c r="D35">
+        <v>99</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>153</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K35">
+        <v>0.6741573033707865</v>
+      </c>
+      <c r="L35">
+        <v>60</v>
+      </c>
+      <c r="M35">
+        <v>60</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>0.375</v>
+      </c>
+      <c r="C36">
+        <v>30</v>
+      </c>
+      <c r="D36">
+        <v>30</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>50</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K36">
+        <v>0.6714285714285714</v>
+      </c>
+      <c r="L36">
+        <v>47</v>
+      </c>
+      <c r="M36">
+        <v>47</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <v>0.2707774798927614</v>
+      </c>
+      <c r="C37">
+        <v>101</v>
+      </c>
+      <c r="D37">
+        <v>101</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>272</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K37">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L37">
+        <v>30</v>
+      </c>
+      <c r="M37">
+        <v>30</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38">
+        <v>0.1366666666666667</v>
+      </c>
+      <c r="C38">
+        <v>41</v>
+      </c>
+      <c r="D38">
+        <v>41</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>259</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K38">
+        <v>0.6140350877192983</v>
+      </c>
+      <c r="L38">
+        <v>35</v>
+      </c>
+      <c r="M38">
+        <v>35</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39">
+        <v>0.08191126279863481</v>
+      </c>
+      <c r="C39">
+        <v>24</v>
+      </c>
+      <c r="D39">
+        <v>24</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>269</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K39">
+        <v>0.609375</v>
+      </c>
+      <c r="L39">
         <v>39</v>
       </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="J34" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K34">
-        <v>0.6222222222222222</v>
-      </c>
-      <c r="L34">
-        <v>28</v>
-      </c>
-      <c r="M34">
-        <v>28</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
+      <c r="M39">
+        <v>39</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>0.0353448275862069</v>
+      </c>
+      <c r="C40">
+        <v>41</v>
+      </c>
+      <c r="D40">
+        <v>42</v>
+      </c>
+      <c r="E40">
+        <v>0.02</v>
+      </c>
+      <c r="F40">
+        <v>0.98</v>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1119</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K40">
+        <v>0.5952380952380952</v>
+      </c>
+      <c r="L40">
+        <v>25</v>
+      </c>
+      <c r="M40">
+        <v>25</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
-      <c r="J35" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K35">
-        <v>0.6060606060606061</v>
-      </c>
-      <c r="L35">
-        <v>20</v>
-      </c>
-      <c r="M35">
-        <v>20</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="J36" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K36">
-        <v>0.6</v>
-      </c>
-      <c r="L36">
+    <row r="41" spans="1:17">
+      <c r="A41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>0.03006789524733269</v>
+      </c>
+      <c r="C41">
+        <v>93</v>
+      </c>
+      <c r="D41">
+        <v>107</v>
+      </c>
+      <c r="E41">
+        <v>0.13</v>
+      </c>
+      <c r="F41">
+        <v>0.87</v>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>3000</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K41">
+        <v>0.5512820512820513</v>
+      </c>
+      <c r="L41">
+        <v>43</v>
+      </c>
+      <c r="M41">
+        <v>43</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>0.02123643227937707</v>
+      </c>
+      <c r="C42">
+        <v>45</v>
+      </c>
+      <c r="D42">
+        <v>69</v>
+      </c>
+      <c r="E42">
+        <v>0.35</v>
+      </c>
+      <c r="F42">
+        <v>0.65</v>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>2074</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K42">
+        <v>0.547945205479452</v>
+      </c>
+      <c r="L42">
+        <v>40</v>
+      </c>
+      <c r="M42">
+        <v>40</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>0.009309791332263243</v>
+      </c>
+      <c r="C43">
+        <v>29</v>
+      </c>
+      <c r="D43">
+        <v>115</v>
+      </c>
+      <c r="E43">
+        <v>0.75</v>
+      </c>
+      <c r="F43">
+        <v>0.25</v>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>3086</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K43">
+        <v>0.5081967213114754</v>
+      </c>
+      <c r="L43">
+        <v>31</v>
+      </c>
+      <c r="M43">
+        <v>31</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
         <v>30</v>
-      </c>
-      <c r="M36">
-        <v>30</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="J37" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K37">
-        <v>0.55</v>
-      </c>
-      <c r="L37">
-        <v>22</v>
-      </c>
-      <c r="M37">
-        <v>22</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="J38" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K38">
-        <v>0.5238095238095238</v>
-      </c>
-      <c r="L38">
-        <v>22</v>
-      </c>
-      <c r="M38">
-        <v>22</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="J39" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K39">
-        <v>0.5</v>
-      </c>
-      <c r="L39">
-        <v>36</v>
-      </c>
-      <c r="M39">
-        <v>37</v>
-      </c>
-      <c r="N39">
-        <v>0.97</v>
-      </c>
-      <c r="O39">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P39" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q39">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="J40" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K40">
-        <v>0.4743589743589743</v>
-      </c>
-      <c r="L40">
-        <v>37</v>
-      </c>
-      <c r="M40">
-        <v>37</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="J41" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K41">
-        <v>0.4482758620689655</v>
-      </c>
-      <c r="L41">
-        <v>26</v>
-      </c>
-      <c r="M41">
-        <v>27</v>
-      </c>
-      <c r="N41">
-        <v>0.96</v>
-      </c>
-      <c r="O41">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P41" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q41">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="J42" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K42">
-        <v>0.390625</v>
-      </c>
-      <c r="L42">
-        <v>25</v>
-      </c>
-      <c r="M42">
-        <v>25</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="J43" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K43">
-        <v>0.2638888888888889</v>
-      </c>
-      <c r="L43">
-        <v>19</v>
-      </c>
-      <c r="M43">
-        <v>19</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K44">
-        <v>0.1743119266055046</v>
+        <v>0.4915254237288136</v>
       </c>
       <c r="L44">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="M44">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2529,73 +2811,73 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K45">
-        <v>0.1544715447154472</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="L45">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="M45">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N45">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="O45">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>104</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="K46">
-        <v>0.08469055374592833</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="L46">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M46">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N46">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>281</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="K47">
-        <v>0.06920415224913495</v>
+        <v>0.2338709677419355</v>
       </c>
       <c r="L47">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="M47">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2607,59 +2889,215 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>269</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="K48">
-        <v>0.05747126436781609</v>
+        <v>0.1793478260869565</v>
       </c>
       <c r="L48">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="M48">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="N48">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="O48">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>328</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K49">
+        <v>0.08413461538461539</v>
+      </c>
+      <c r="L49">
+        <v>35</v>
+      </c>
+      <c r="M49">
+        <v>35</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K50">
+        <v>0.07467532467532467</v>
+      </c>
+      <c r="L50">
+        <v>23</v>
+      </c>
+      <c r="M50">
+        <v>23</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K51">
+        <v>0.06876790830945559</v>
+      </c>
+      <c r="L51">
+        <v>24</v>
+      </c>
+      <c r="M51">
+        <v>24</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K52">
+        <v>0.02950310559006211</v>
+      </c>
+      <c r="L52">
+        <v>19</v>
+      </c>
+      <c r="M52">
+        <v>25</v>
+      </c>
+      <c r="N52">
+        <v>0.76</v>
+      </c>
+      <c r="O52">
+        <v>0.24</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K53">
+        <v>0.02711223203026482</v>
+      </c>
+      <c r="L53">
         <v>86</v>
       </c>
-      <c r="K49">
-        <v>0.01506118606840289</v>
-      </c>
-      <c r="L49">
-        <v>48</v>
-      </c>
-      <c r="M49">
-        <v>62</v>
-      </c>
-      <c r="N49">
-        <v>0.77</v>
-      </c>
-      <c r="O49">
-        <v>0.23</v>
-      </c>
-      <c r="P49" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q49">
-        <v>3139</v>
+      <c r="M53">
+        <v>115</v>
+      </c>
+      <c r="N53">
+        <v>0.75</v>
+      </c>
+      <c r="O53">
+        <v>0.25</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>3086</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K54">
+        <v>0.0244988864142539</v>
+      </c>
+      <c r="L54">
+        <v>22</v>
+      </c>
+      <c r="M54">
+        <v>25</v>
+      </c>
+      <c r="N54">
+        <v>0.88</v>
+      </c>
+      <c r="O54">
+        <v>0.12</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K55">
+        <v>0.01143946615824595</v>
+      </c>
+      <c r="L55">
+        <v>24</v>
+      </c>
+      <c r="M55">
+        <v>69</v>
+      </c>
+      <c r="N55">
+        <v>0.35</v>
+      </c>
+      <c r="O55">
+        <v>0.65</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>2074</v>
       </c>
     </row>
   </sheetData>
